--- a/comparison_results/Summary_Results.xlsx
+++ b/comparison_results/Summary_Results.xlsx
@@ -465,16 +465,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0381167541103032</v>
+        <v>0.0381167541120819</v>
       </c>
       <c r="C2" t="n">
-        <v>0.03225744856697357</v>
+        <v>0.03223398397352191</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8462800498076559</v>
+        <v>0.8456644518769418</v>
       </c>
       <c r="E2" t="n">
-        <v>0.005859305543329633</v>
+        <v>0.005882770138559992</v>
       </c>
     </row>
     <row r="3">
@@ -482,16 +482,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0290144619564346</v>
+        <v>0.03064643001352425</v>
       </c>
       <c r="C3" t="n">
-        <v>0.03177401625648166</v>
+        <v>0.03156115101066054</v>
       </c>
       <c r="D3" t="n">
-        <v>1.095109614791084</v>
+        <v>1.02984755473093</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.002759554300047061</v>
+        <v>-0.0009147209971362841</v>
       </c>
     </row>
     <row r="4">
@@ -499,16 +499,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.03622710914756089</v>
+        <v>0.03394797729401562</v>
       </c>
       <c r="C4" t="n">
-        <v>0.03495886514757951</v>
+        <v>0.03498385238657256</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9649918519632482</v>
+        <v>1.030513602727652</v>
       </c>
       <c r="E4" t="n">
-        <v>0.001268243999981378</v>
+        <v>-0.00103587509255694</v>
       </c>
     </row>
     <row r="5">
@@ -516,16 +516,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.03688089120400134</v>
+        <v>0.03661440369615534</v>
       </c>
       <c r="C5" t="n">
-        <v>0.03240908588261222</v>
+        <v>0.03213804755003475</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8787500742144768</v>
+        <v>0.8777433006073885</v>
       </c>
       <c r="E5" t="n">
-        <v>0.004471805321389119</v>
+        <v>0.004476356146120589</v>
       </c>
     </row>
     <row r="6">
@@ -533,16 +533,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.02299389914933973</v>
+        <v>0.02279275719101436</v>
       </c>
       <c r="C6" t="n">
-        <v>0.05569976834222223</v>
+        <v>0.03143363321481968</v>
       </c>
       <c r="D6" t="n">
-        <v>2.422371603026782</v>
+        <v>1.37910622007643</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.03270586919288251</v>
+        <v>-0.008640876023805321</v>
       </c>
     </row>
     <row r="7">
@@ -550,16 +550,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>0.04453415780036089</v>
+        <v>0.04173145153451659</v>
       </c>
       <c r="C7" t="n">
-        <v>0.04109784686766557</v>
+        <v>0.04047578132408375</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9228387578788461</v>
+        <v>0.9699106989030981</v>
       </c>
       <c r="E7" t="n">
-        <v>0.003436310932695322</v>
+        <v>0.001255670210432838</v>
       </c>
     </row>
     <row r="8">
@@ -567,16 +567,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>0.03036519246144574</v>
+        <v>0.02759761002292697</v>
       </c>
       <c r="C8" t="n">
-        <v>0.02761608844330986</v>
+        <v>0.02378963642782176</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9094652858984386</v>
+        <v>0.8620179938791185</v>
       </c>
       <c r="E8" t="n">
-        <v>0.00274910401813588</v>
+        <v>0.003807973595105211</v>
       </c>
     </row>
   </sheetData>
